--- a/queue_stack/record.xlsx
+++ b/queue_stack/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\queue_stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40281903-BEFA-4FF6-BDD6-63140763A09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5DB00A-BBB0-47FD-9334-028F9B1B3AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9264" yWindow="3372" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="3684" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>涉及到前缀积的概念，目前还未了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfferII041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次用到滑动窗口的操作，注意队列的更新和迭代求和而非重新循环求和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -436,6 +444,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/queue_stack/record.xlsx
+++ b/queue_stack/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\queue_stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5DB00A-BBB0-47FD-9334-028F9B1B3AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BA3D00-8F75-4619-B20B-2D68BB69FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3684" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8172" yWindow="3432" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,26 @@
   </si>
   <si>
     <t>首次用到滑动窗口的操作，注意队列的更新和迭代求和而非重新循环求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次用到单调栈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,70 +409,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>225</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>387</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1352</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>496</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/queue_stack/record.xlsx
+++ b/queue_stack/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\queue_stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BA3D00-8F75-4619-B20B-2D68BB69FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77219639-00A4-4F01-B3D5-BB34D46223B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8172" yWindow="3432" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7188" yWindow="3252" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>首次用到单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是单调栈，但构建hashmap是不必要的，而且栈中存放的东西可以灵活变通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -515,6 +519,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1475</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/queue_stack/record.xlsx
+++ b/queue_stack/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\queue_stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77219639-00A4-4F01-B3D5-BB34D46223B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051679C5-4686-45CA-B99E-16E9F5384F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7188" yWindow="3252" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5208" yWindow="3168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>还是单调栈，但构建hashmap是不必要的，而且栈中存放的东西可以灵活变通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1475的拙劣模仿，栈中存放的是索引，比较的是栈顶的元素（索引）对应的温度和当前的温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -533,6 +537,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>739</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/queue_stack/record.xlsx
+++ b/queue_stack/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\queue_stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051679C5-4686-45CA-B99E-16E9F5384F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF9C5E-39D2-474E-AE4C-2C6FD6308561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5208" yWindow="3168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OfferII041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首次用到滑动窗口的操作，注意队列的更新和迭代求和而非重新循环求和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +88,46 @@
   </si>
   <si>
     <t>对1475的拙劣模仿，栈中存放的是索引，比较的是栈顶的元素（索引）对应的温度和当前的温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路一样，但用split的做法很优雅，启示是既然用到了python, 就尽量利用好它的特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225用队列实现栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>387字符串中的第一个唯一字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1352最后 K 个数的乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer II 041滑动窗口的平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20有效的括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>496下一个更大元素I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1475商品折扣后的最终价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>739每日温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71简化路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,14 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -433,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -443,11 +480,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>225</v>
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -457,11 +494,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>387</v>
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -471,11 +508,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1352</v>
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -486,68 +523,82 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>496</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1475</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>739</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>

--- a/queue_stack/record.xlsx
+++ b/queue_stack/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\queue_stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF9C5E-39D2-474E-AE4C-2C6FD6308561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A06C196-7D8D-4BD1-B1AB-65ECA43117DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5208" yWindow="3168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,14 @@
   </si>
   <si>
     <t>71简化路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>735行星碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次见到while…else, 而且如果while循环是break掉的话（不是正常退出）是不会执行else的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -602,6 +610,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/queue_stack/record.xlsx
+++ b/queue_stack/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\queue_stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A06C196-7D8D-4BD1-B1AB-65ECA43117DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67130D7-06F5-405F-B6A3-D9D35A01C64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5208" yWindow="3168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>第一次见到while…else, 而且如果while循环是break掉的话（不是正常退出）是不会执行else的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>962最大宽度坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官解还有办法，如二分法，现在还未涉及到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,6 +636,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/queue_stack/record.xlsx
+++ b/queue_stack/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\queue_stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67130D7-06F5-405F-B6A3-D9D35A01C64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23CE23B-F643-4DA3-91FA-DA1DAA4BD5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5208" yWindow="3168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4992" yWindow="1644" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 50第一个只出现一次的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次提醒统计元素可以用Counter. 用到了队列的延迟删除，注意和387是一样的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -650,6 +658,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
